--- a/angular/assignment/angular-9-june-2022.xlsx
+++ b/angular/assignment/angular-9-june-2022.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\incarnus\2022\mean_training_May-2022\angular\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B05400D-B441-438E-9597-984C3143D3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F75172-2C10-44ED-A137-5836A30C2D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="customservice" sheetId="1" r:id="rId1"/>
+    <sheet name="httpget" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>1. Create a service with the name customService with following methods</t>
   </si>
@@ -34,14 +35,43 @@
   </si>
   <si>
     <t>b. milestokm(miles) should return km</t>
+  </si>
+  <si>
+    <t>JSON Place holder Users</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Company Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -57,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,12 +95,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -380,4 +428,81 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB8E39A-3CA3-488D-BDE0-E25322706F02}">
+  <dimension ref="E3:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="7" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/angular/assignment/angular-9-june-2022.xlsx
+++ b/angular/assignment/angular-9-june-2022.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\incarnus\2022\mean_training_May-2022\angular\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F75172-2C10-44ED-A137-5836A30C2D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B6C697-4C37-4236-9664-81810FA5E42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customservice" sheetId="1" r:id="rId1"/>
     <sheet name="httpget" sheetId="2" r:id="rId2"/>
+    <sheet name="crud" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>1. Create a service with the name customService with following methods</t>
   </si>
@@ -56,6 +57,27 @@
   </si>
   <si>
     <t>Company Name</t>
+  </si>
+  <si>
+    <t>http://jsonplaceholder.typicode.com/posts</t>
+  </si>
+  <si>
+    <t>CRUD functionality with posts url</t>
+  </si>
+  <si>
+    <t>Limit display to 10 records</t>
+  </si>
+  <si>
+    <t>Post added should be displayed in the beginning</t>
+  </si>
+  <si>
+    <t>Add search by title</t>
+  </si>
+  <si>
+    <t>sort by title</t>
+  </si>
+  <si>
+    <t>apply bootstrap</t>
   </si>
 </sst>
 </file>
@@ -434,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB8E39A-3CA3-488D-BDE0-E25322706F02}">
   <dimension ref="E3:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -505,4 +527,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4450CBC3-CC21-4C85-B236-932B3C6BC965}">
+  <dimension ref="E2:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>